--- a/20180126_SmartCut/Meeting/20190315 Meeting/linearcut/first_run IDA #8 v1.0.xlsx
+++ b/20180126_SmartCut/Meeting/20190315 Meeting/linearcut/first_run IDA #8 v1.0.xlsx
@@ -833,414 +833,452 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="T1" sqref="T1:AI1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="9"/>
+      <c r="J1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="9"/>
       <c r="K1" s="9"/>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="9"/>
+      <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="9"/>
       <c r="O1" s="9"/>
-      <c r="P1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" s="9" t="s">
+      <c r="P1" s="9"/>
+      <c r="Q1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="1"/>
+      <c r="N2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>60</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>80</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>21</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>25</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>21</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>189.9999916553499</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>330.00001907348599</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>190.00000953674299</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>26</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>27</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>26</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>800</v>
-      </c>
-      <c r="Q4">
-        <v>45</v>
       </c>
       <c r="R4">
         <v>45</v>
       </c>
+      <c r="S4">
+        <v>45</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E5" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>22</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
         <v>19</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
         <v>22</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>23</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>21</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>23</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>119.99999880790691</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>469.99999284744302</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>120.00002861022899</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>60</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>80</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>17</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>24</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>25</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>24</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>209.99999642372089</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>289.99998569488599</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>210.00003814697189</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>26</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>28</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>26</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>800</v>
-      </c>
-      <c r="Q8">
-        <v>45</v>
       </c>
       <c r="R8">
         <v>45</v>
       </c>
+      <c r="S8">
+        <v>45</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
         <v>18</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>22</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
         <v>22</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>23</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>21</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>23</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>119.99999880790691</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>469.99999284744302</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>120.00002861022899</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>16</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>60</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>80</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>17</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>24</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>25</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>24</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>200.0000059604649</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>310.00001430511401</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>200</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>26</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>27</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>26</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>800</v>
-      </c>
-      <c r="Q12">
-        <v>45</v>
       </c>
       <c r="R12">
         <v>45</v>
       </c>
+      <c r="S12">
+        <v>45</v>
+      </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
         <v>18</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>22</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
         <v>19</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
         <v>22</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
         <v>20</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>23</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>21</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>23</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>119.99999880790691</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>469.99999284744302</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>120.00002861022899</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1249,183 +1287,194 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="9"/>
+      <c r="J1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="9"/>
       <c r="K1" s="9"/>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="9"/>
+      <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="9"/>
       <c r="O1" s="9"/>
-      <c r="P1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" s="9" t="s">
+      <c r="P1" s="9"/>
+      <c r="Q1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="1"/>
+      <c r="N2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>60</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>80</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>21</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>25</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>21</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>236.6666734218596</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>236.66667342185971</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>236.6666734218596</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>26</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>27</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>26</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>800</v>
-      </c>
-      <c r="Q4">
-        <v>45</v>
       </c>
       <c r="R4">
         <v>45</v>
       </c>
+      <c r="S4">
+        <v>45</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E5" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>22</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
         <v>19</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
         <v>22</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
         <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
       </c>
       <c r="G7" t="s">
         <v>21</v>
@@ -1433,103 +1482,115 @@
       <c r="H7" t="s">
         <v>21</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7">
         <v>142.00000405311579</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>426.00001215934731</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>142.00000405311579</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>60</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>80</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>17</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>24</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>25</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>24</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>236.6666734218596</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>236.66667342185971</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>236.6666734218596</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>26</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>28</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>26</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>800</v>
-      </c>
-      <c r="Q8">
-        <v>45</v>
       </c>
       <c r="R8">
         <v>45</v>
       </c>
+      <c r="S8">
+        <v>45</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
         <v>18</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>22</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
         <v>22</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
         <v>20</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
       </c>
       <c r="G11" t="s">
         <v>21</v>
@@ -1537,103 +1598,115 @@
       <c r="H11" t="s">
         <v>21</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11">
         <v>142.00000405311579</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>426.00001215934731</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>142.00000405311579</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>16</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>60</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>80</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>17</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>24</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>25</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>24</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>236.6666734218596</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>236.66667342185971</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>236.6666734218596</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>26</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>27</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>26</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>800</v>
-      </c>
-      <c r="Q12">
-        <v>45</v>
       </c>
       <c r="R12">
         <v>45</v>
       </c>
+      <c r="S12">
+        <v>45</v>
+      </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
         <v>18</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>22</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
         <v>19</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
         <v>22</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
         <v>20</v>
-      </c>
-      <c r="F15" t="s">
-        <v>21</v>
       </c>
       <c r="G15" t="s">
         <v>21</v>
@@ -1641,22 +1714,25 @@
       <c r="H15" t="s">
         <v>21</v>
       </c>
-      <c r="I15">
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15">
         <v>142.00000405311579</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>426.00001215934731</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>142.00000405311579</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1668,9 +1744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP217"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
